--- a/Data_preparation/datasets/final_data/COREWEAVE_INC_CL_A.xlsx
+++ b/Data_preparation/datasets/final_data/COREWEAVE_INC_CL_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,24 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -670,22 +652,22 @@
         <v>45291</v>
       </c>
       <c r="D2">
-        <v>1152.400024414062</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>1198.829956054688</v>
+        <v>37.08000183105469</v>
       </c>
       <c r="F2">
-        <v>1307.140014648438</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="G2">
-        <v>1113.18994140625</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>24003656</v>
+        <v>380162985</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1739653000</v>
@@ -714,22 +696,22 @@
         <v>45382</v>
       </c>
       <c r="D3">
-        <v>104.6600036621094</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>92.98000335693359</v>
+        <v>37.08000183105469</v>
       </c>
       <c r="F3">
-        <v>105.0100021362305</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="G3">
-        <v>90.66999816894533</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>168459019</v>
+        <v>380162985</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>188684000</v>
@@ -791,22 +773,22 @@
         <v>45473</v>
       </c>
       <c r="D4">
-        <v>53.97000122070312</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>52.63999938964844</v>
+        <v>37.08000183105469</v>
       </c>
       <c r="F4">
-        <v>65.87999725341797</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="G4">
-        <v>50.29000091552734</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>42689006</v>
+        <v>380162985</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>395371000</v>
@@ -868,22 +850,22 @@
         <v>45657</v>
       </c>
       <c r="D5">
-        <v>12.96000003814697</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>14.22000026702881</v>
+        <v>37.08000183105469</v>
       </c>
       <c r="F5">
-        <v>15.34500026702881</v>
+        <v>41.93999862670898</v>
       </c>
       <c r="G5">
-        <v>12.61999988555908</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>453568899</v>
+        <v>380162985</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>9221800000</v>
@@ -912,22 +894,22 @@
         <v>45747</v>
       </c>
       <c r="D6">
-        <v>187.8600006103516</v>
+        <v>38.5</v>
       </c>
       <c r="E6">
-        <v>184.4199981689453</v>
+        <v>41.29999923706055</v>
       </c>
       <c r="F6">
-        <v>198.3399963378907</v>
+        <v>64.62000274658203</v>
       </c>
       <c r="G6">
-        <v>161.3800048828125</v>
+        <v>33.51499938964844</v>
       </c>
       <c r="H6">
-        <v>10664912097</v>
+        <v>380162985</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>17556672921</v>
@@ -1019,22 +1001,22 @@
         <v>45838</v>
       </c>
       <c r="D7">
-        <v>105.0804770925983</v>
+        <v>162.7799987792969</v>
       </c>
       <c r="E7">
-        <v>103.1780242919922</v>
+        <v>114.129997253418</v>
       </c>
       <c r="F7">
-        <v>109.3114367486601</v>
+        <v>166.2200012207031</v>
       </c>
       <c r="G7">
-        <v>101.4440230697358</v>
+        <v>100.8000030517578</v>
       </c>
       <c r="H7">
-        <v>199618386</v>
+        <v>380162985</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>78265071307</v>
